--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63DF491-CA9D-45C1-AA2B-8ECD10161C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A4CB8-1EE5-4AE9-BD2D-63923C775C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="333">
   <si>
     <t>index</t>
   </si>
@@ -1345,7 +1345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1659,11 +1659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:D92"/>
+    <sheetView tabSelected="1" topLeftCell="D91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -4976,8 +4976,12 @@
       <c r="G99" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
+      <c r="H99" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="J99" s="29" t="s">
         <v>31</v>
       </c>
@@ -5315,8 +5319,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5325,8 +5329,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5337,12 +5341,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5587,21 +5594,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5626,12 +5633,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49152\Documents\TA5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F573BCA-16E4-46C2-9425-EB52ED79D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{01D65BCB-2CBD-41B1-8947-7094C6C01737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,24 +17,13 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1035,15 +1024,6 @@
     <t>KORA_S1_P101</t>
   </si>
   <si>
-    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
     <t>COFFEE_130301</t>
   </si>
   <si>
@@ -1069,6 +1049,15 @@
   </si>
   <si>
     <t>AV850 (tea)</t>
+  </si>
+  <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1613,11 +1602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -1899,7 +1888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.75">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2413,7 +2402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="40" customFormat="1" ht="30.75">
+    <row r="28" spans="1:10" s="40" customFormat="1" ht="30">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -2471,7 +2460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" ht="30.75">
+    <row r="30" spans="1:10" s="40" customFormat="1" ht="30">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -2880,7 +2869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30.75">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4266,7 +4255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="106.5">
+    <row r="94" spans="1:10" ht="105">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -4298,7 +4287,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30.75">
+    <row r="95" spans="1:10" ht="30">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -4362,7 +4351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30.75">
+    <row r="97" spans="1:10" ht="30">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -4420,7 +4409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="183">
+    <row r="99" spans="1:10" ht="180">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -4484,7 +4473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="305.25">
+    <row r="101" spans="1:10" ht="300">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -4516,7 +4505,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="76.5">
+    <row r="102" spans="1:10" ht="75">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -4548,7 +4537,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="91.5">
+    <row r="103" spans="1:10" ht="60">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -4562,16 +4551,16 @@
         <v>313</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F103" s="21" t="s">
         <v>272</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I103" s="21" t="s">
         <v>275</v>
@@ -4580,30 +4569,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="30.75">
+    <row r="104" spans="1:10" ht="30">
       <c r="A104" s="21">
         <v>103</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F104" s="21" t="s">
         <v>272</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I104" s="21" t="s">
         <v>275</v>
@@ -4617,16 +4606,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F105" s="21" t="s">
         <v>21</v>
@@ -4635,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>275</v>
@@ -4728,8 +4717,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4738,8 +4727,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -4772,6 +4761,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5012,35 +5022,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90007BCE-D6C9-4CB3-AE8E-CBBB1F6A5A5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90007BCE-D6C9-4CB3-AE8E-CBBB1F6A5A5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A4CB8-1EE5-4AE9-BD2D-63923C775C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C416FB11-198A-4370-BA4F-35ACA146801B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -997,15 +997,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
     <t>COFFEE_130301</t>
   </si>
   <si>
@@ -1064,6 +1055,15 @@
   </si>
   <si>
     <t>INZ_APO_HAEM_16</t>
+  </si>
+  <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1659,23 +1659,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1718,25 +1718,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>14</v>
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>13</v>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -2598,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>13</v>
@@ -2668,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>13</v>
@@ -3255,7 +3255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" ht="30">
+    <row r="48" spans="1:11" s="2" customFormat="1">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>13</v>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" ht="30">
+    <row r="50" spans="1:11" s="2" customFormat="1">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>13</v>
@@ -3925,7 +3925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="4" customFormat="1" ht="60">
+    <row r="95" spans="1:11" s="4" customFormat="1" ht="57.6">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="4" customFormat="1" ht="30">
+    <row r="96" spans="1:11" s="4" customFormat="1" ht="28.8">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="30">
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="120">
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="115.2">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="285">
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="273.60000000000002">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" ht="45">
+    <row r="103" spans="1:11" s="4" customFormat="1" ht="43.2">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="60">
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="43.2">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -5146,16 +5146,16 @@
         <v>12</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>264</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="J104" s="29" t="s">
         <v>271</v>
@@ -5169,10 +5169,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>35</v>
@@ -5181,16 +5181,16 @@
         <v>12</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>264</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J105" s="29" t="s">
         <v>271</v>
@@ -5204,28 +5204,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="35" t="s">
         <v>318</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>321</v>
       </c>
       <c r="J106" s="29" t="s">
         <v>271</v>
@@ -5319,8 +5319,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5329,8 +5329,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5341,15 +5341,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5594,21 +5591,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5633,9 +5630,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C416FB11-198A-4370-BA4F-35ACA146801B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EDB0F-0063-4EFF-A412-F147F604AA37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>Body Mass index Standard Deviation Score at baseline (children studies)</t>
-  </si>
-  <si>
-    <t>BMI__SDS_FUP</t>
   </si>
   <si>
     <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
@@ -1065,12 +1062,15 @@
   <si>
     <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
   </si>
+  <si>
+    <t>BMI_SDS_FUP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,11 +1659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -1678,7 +1678,7 @@
     <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1713,30 +1713,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>14</v>
@@ -1748,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -2548,7 +2548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -2616,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>13</v>
@@ -2651,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>13</v>
@@ -2686,7 +2686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1">
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1">
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>13</v>
@@ -3290,7 +3290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>13</v>
@@ -3360,7 +3360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1">
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -3958,15 +3958,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>35</v>
@@ -3991,15 +3991,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>35</v>
@@ -4024,15 +4024,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>35</v>
@@ -4057,15 +4057,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>35</v>
@@ -4090,15 +4090,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>35</v>
@@ -4123,15 +4123,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>35</v>
@@ -4156,15 +4156,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1">
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>74</v>
       </c>
       <c r="B75" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="45" t="s">
         <v>210</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>211</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>35</v>
@@ -4189,15 +4189,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1">
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43">
         <v>75</v>
       </c>
       <c r="B76" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>212</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>213</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>35</v>
@@ -4222,24 +4222,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="D77" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>13</v>
@@ -4255,24 +4255,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>13</v>
@@ -4288,24 +4288,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>13</v>
@@ -4321,24 +4321,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="D80" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>13</v>
@@ -4354,24 +4354,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="D81" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>13</v>
@@ -4387,24 +4387,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="D82" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>231</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>13</v>
@@ -4420,24 +4420,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>13</v>
@@ -4453,24 +4453,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="D84" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>237</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>13</v>
@@ -4486,24 +4486,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="D85" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>13</v>
@@ -4519,24 +4519,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="D86" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>242</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>243</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>13</v>
@@ -4552,15 +4552,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>35</v>
@@ -4585,15 +4585,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>35</v>
@@ -4618,24 +4618,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="D89" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>250</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>13</v>
@@ -4651,24 +4651,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="D90" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>13</v>
@@ -4684,15 +4684,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>35</v>
@@ -4717,15 +4717,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>35</v>
@@ -4750,24 +4750,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="D93" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="G93" s="19" t="s">
         <v>13</v>
@@ -4783,30 +4783,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="D94" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D94" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="19" t="s">
+      <c r="G94" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="H94" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="19" t="s">
@@ -4816,155 +4816,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="4" customFormat="1" ht="57.6">
+    <row r="95" spans="1:11" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="D95" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="31" t="s">
+      <c r="G95" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H95" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="G95" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="H95" s="32" t="s">
+      <c r="I95" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="I95" s="33" t="s">
+      <c r="J95" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="J95" s="29" t="s">
+      <c r="K95" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K95" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="4" customFormat="1" ht="28.8">
+    </row>
+    <row r="96" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="D96" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="29" t="s">
+      <c r="G96" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H96" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="G96" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="H96" s="29" t="s">
+      <c r="I96" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="I96" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="J96" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K96" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K96" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="4" customFormat="1">
+    </row>
+    <row r="97" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="D97" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="D97" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="35" t="s">
+      <c r="G97" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="G97" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="35" t="s">
-        <v>281</v>
-      </c>
       <c r="J97" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K97" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8">
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="D98" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="29" t="s">
+      <c r="G98" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H98" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G98" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H98" s="29" t="s">
+      <c r="I98" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="I98" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="J98" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K98" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K98" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="4" customFormat="1">
+    </row>
+    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>35</v>
@@ -4989,156 +4989,156 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="115.2">
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="D100" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D100" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="33" t="s">
+      <c r="G100" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="G100" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H100" s="33" t="s">
+      <c r="I100" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I100" s="33" t="s">
-        <v>293</v>
-      </c>
       <c r="J100" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K100" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="4" customFormat="1">
+    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="D101" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="37" t="s">
+      <c r="G101" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G101" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="37" t="s">
-        <v>297</v>
-      </c>
       <c r="J101" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K101" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="273.60000000000002">
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="D102" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="G102" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H102" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="G102" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H102" s="31" t="s">
+      <c r="I102" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="I102" s="33" t="s">
-        <v>302</v>
-      </c>
       <c r="J102" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K102" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K102" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" ht="43.2">
+    </row>
+    <row r="103" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>102</v>
       </c>
       <c r="B103" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C103" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="D103" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D103" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="33" t="s">
+      <c r="G103" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H103" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="G103" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H103" s="33" t="s">
+      <c r="I103" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="I103" s="38" t="s">
-        <v>307</v>
-      </c>
       <c r="J103" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K103" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K103" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="43.2">
+    </row>
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="34" t="s">
-        <v>309</v>
-      </c>
       <c r="D104" s="29" t="s">
         <v>35</v>
       </c>
@@ -5146,181 +5146,181 @@
         <v>12</v>
       </c>
       <c r="F104" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H104" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="G104" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H104" s="33" t="s">
+      <c r="I104" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="I104" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="J104" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K104" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="4" customFormat="1">
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="D105" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="29" t="s">
+      <c r="G105" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H105" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G105" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H105" s="29" t="s">
+      <c r="I105" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="I105" s="38" t="s">
-        <v>314</v>
-      </c>
       <c r="J105" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K105" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K105" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="4" customFormat="1">
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="D106" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="35" t="s">
+      <c r="G106" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="G106" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>318</v>
-      </c>
       <c r="J106" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K106" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="4" customFormat="1">
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C107" s="5"/>
       <c r="E107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:11" s="4" customFormat="1">
+    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="5:9">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="5:9">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="5:9">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="5:9">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="5:9">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="5:9">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="5:9">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="5:9">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="5:9">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="5:9">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="5:9">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="5:9">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="5:9">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="5:9">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="5:9">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I127" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5329,8 +5329,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5341,15 +5341,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5590,6 +5581,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5603,14 +5603,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01209340-F0B9-4FEB-870E-F887EE00E421}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5629,6 +5621,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EDB0F-0063-4EFF-A412-F147F604AA37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{E30EDB0F-0063-4EFF-A412-F147F604AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06C103B-6E96-46C5-B783-413515EF0904}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="337">
   <si>
     <t>index</t>
   </si>
@@ -65,39 +76,54 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Participant identification number</t>
   </si>
   <si>
+    <t xml:space="preserve">integer  </t>
+  </si>
+  <si>
     <t>KORA_S1_P2</t>
   </si>
   <si>
+    <t>a_id</t>
+  </si>
+  <si>
+    <t>id_creation</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>acsex</t>
+  </si>
+  <si>
     <t>direct_mapping</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>identical</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>acsex</t>
-  </si>
-  <si>
     <t>AGE_BASE</t>
   </si>
   <si>
     <t>Age at exposure measure</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>atalteru</t>
   </si>
   <si>
@@ -116,6 +142,9 @@
     <t>Employment</t>
   </si>
   <si>
+    <t>atemploy</t>
+  </si>
+  <si>
     <t>ai16, ai17, ai28 --&gt; atemploy</t>
   </si>
   <si>
@@ -137,9 +166,6 @@
     <t>Physical activity from questionnaire data</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>TOT_PA_AC</t>
   </si>
   <si>
@@ -287,6 +313,9 @@
     <t>History of cardiovascular disease</t>
   </si>
   <si>
+    <t>atcvd</t>
+  </si>
+  <si>
     <t>combination prev_mi_16 and prev_apo_16</t>
   </si>
   <si>
@@ -302,6 +331,9 @@
     <t>First degree family history of premature CHD and stroke</t>
   </si>
   <si>
+    <t>atmvcvd</t>
+  </si>
+  <si>
     <t>atvinfa + atminfa + atvschl + atmschl --&gt; atmvcvd</t>
   </si>
   <si>
@@ -311,6 +343,9 @@
     <t>First degree family history of T2D</t>
   </si>
   <si>
+    <t>atmvdiab</t>
+  </si>
+  <si>
     <t>atvdiab + atmdiab --&gt; atmvdiab</t>
   </si>
   <si>
@@ -320,6 +355,9 @@
     <t>First degree family history of cancer</t>
   </si>
   <si>
+    <t>atmvca</t>
+  </si>
+  <si>
     <t>only parents: atvca + atmca --&gt; atmvca</t>
   </si>
   <si>
@@ -461,6 +499,9 @@
     <t>Cerebral infarction (ischaemic stroke) during follow-up</t>
   </si>
   <si>
+    <t>inz_apo_isc_16</t>
+  </si>
+  <si>
     <t>validated incidence: inz_apo_16 = 1 (apo_typ_ 16 = 1, 2)</t>
   </si>
   <si>
@@ -479,6 +520,9 @@
     <t>Haemorrhagic stroke during follow-up</t>
   </si>
   <si>
+    <t>inz_apo_haem_16</t>
+  </si>
+  <si>
     <t>validated incidence: inz_apo_16 = 1 (apo_typ_ 16 = 3, 4)</t>
   </si>
   <si>
@@ -626,6 +670,9 @@
     <t>Body Mass index Standard Deviation Score at baseline (children studies)</t>
   </si>
   <si>
+    <t>BMI_SDS_FUP</t>
+  </si>
+  <si>
     <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
   </si>
   <si>
@@ -653,16 +700,28 @@
     <t>Hip circumference at follow-up</t>
   </si>
   <si>
+    <t>FMI_FUP</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up</t>
+  </si>
+  <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Fat mass index at follow-up</t>
+    <t>Fat mass index at baseline</t>
+  </si>
+  <si>
+    <t>BODY_FAT_FUP</t>
+  </si>
+  <si>
+    <t>Body fat at follow-up</t>
   </si>
   <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat at at follow-up</t>
+    <t>Body fat at baseline</t>
   </si>
   <si>
     <t>AGE_ANTH_FUP</t>
@@ -994,6 +1053,15 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
+  </si>
+  <si>
     <t>COFFEE_130301</t>
   </si>
   <si>
@@ -1019,58 +1087,13 @@
   </si>
   <si>
     <t>AV850 (tea)</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>A_ID</t>
-  </si>
-  <si>
-    <t>id_creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer  </t>
-  </si>
-  <si>
-    <t>ATEMPLOY</t>
-  </si>
-  <si>
-    <t>ATMVCVD</t>
-  </si>
-  <si>
-    <t>ATMVDIAB</t>
-  </si>
-  <si>
-    <t>ATMVCA</t>
-  </si>
-  <si>
-    <t>ATCVD</t>
-  </si>
-  <si>
-    <t>INZ_APO_ISC_16</t>
-  </si>
-  <si>
-    <t>INZ_APO_HAEM_16</t>
-  </si>
-  <si>
-    <t>AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
-    <t>BMI_SDS_FUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,7 +1171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1190,19 +1213,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1229,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,17 +1345,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,7 +1367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1657,28 +1663,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1713,3609 +1719,3675 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1">
       <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="2" customFormat="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="2" customFormat="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="2" customFormat="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="2" customFormat="1">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1">
       <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="2" customFormat="1">
       <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="2" customFormat="1">
       <c r="A44" s="13">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="13">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1">
       <c r="A48" s="13">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="2" customFormat="1">
       <c r="A50" s="13">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" s="2" customFormat="1">
       <c r="A51" s="13">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="13">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="2" customFormat="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="13">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="13">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="13">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="13">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="13">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="19">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="19">
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15">
+      <c r="A75" s="19">
         <v>74</v>
       </c>
-      <c r="B75" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>210</v>
+      <c r="B75" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="2" customFormat="1" ht="15">
+      <c r="A76" s="19">
         <v>75</v>
       </c>
-      <c r="B76" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>212</v>
+      <c r="B76" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>224</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" ht="15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>214</v>
+      <c r="B77" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="2" customFormat="1">
       <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>217</v>
+      <c r="B78" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="19">
         <v>78</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>220</v>
+      <c r="B79" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I79" s="19"/>
       <c r="J79" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I82" s="19"/>
       <c r="J82" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>255</v>
+      </c>
       <c r="G87" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I87" s="19"/>
       <c r="J87" s="19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>258</v>
+      </c>
       <c r="G88" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I88" s="19"/>
       <c r="J88" s="19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>249</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F89" s="26"/>
       <c r="G89" s="19" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J89" s="19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>252</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F90" s="26"/>
       <c r="G90" s="19" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J90" s="19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="G91" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I91" s="19"/>
       <c r="J91" s="19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>268</v>
+      </c>
       <c r="G92" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I92" s="19"/>
       <c r="J92" s="19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>259</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F93" s="19"/>
       <c r="G93" s="19" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J93" s="19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>262</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F94" s="19"/>
       <c r="G94" s="19" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I94" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J94" s="19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="19">
         <v>94</v>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G95" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="H95" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="J95" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="K95" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="21">
+      <c r="B95" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="19">
         <v>95</v>
       </c>
-      <c r="B96" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G96" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="H96" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I96" s="33" t="s">
+      <c r="B96" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="J96" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="K96" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="4" customFormat="1" ht="57.6">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G97" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="35" t="s">
-        <v>280</v>
+      <c r="H97" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I97" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="30.75">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="J98" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K98" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="4" customFormat="1">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J99" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I99" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J99" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="K99" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="28.9">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>290</v>
+        <v>14</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>299</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H100" s="33" t="s">
-        <v>291</v>
+        <v>279</v>
+      </c>
+      <c r="H100" s="29" t="s">
+        <v>300</v>
       </c>
       <c r="I100" s="33" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="J100" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="4" customFormat="1">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>294</v>
+        <v>302</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="37" t="s">
-        <v>295</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F101" s="29"/>
       <c r="G101" s="29" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="37" t="s">
-        <v>296</v>
+        <v>37</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="K101" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="115.15">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>305</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>299</v>
+        <v>14</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H102" s="31" t="s">
-        <v>300</v>
+        <v>279</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>307</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J102" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K102" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="4" customFormat="1">
+      <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>303</v>
+        <v>309</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>304</v>
+        <v>14</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>311</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H103" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="I103" s="38" t="s">
-        <v>306</v>
+        <v>23</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="J103" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="273.60000000000002">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>308</v>
+        <v>313</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>329</v>
+        <v>14</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H104" s="33" t="s">
-        <v>330</v>
+        <v>279</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>316</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J104" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" ht="45.75">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>311</v>
+        <v>14</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H105" s="29" t="s">
-        <v>312</v>
+        <v>279</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>321</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K105" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.15">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>316</v>
+        <v>14</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>325</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>317</v>
+        <v>279</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="I106" s="33" t="s">
+        <v>327</v>
       </c>
       <c r="J106" s="29" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="5"/>
-      <c r="E107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="4" customFormat="1">
+      <c r="A107" s="19">
+        <v>106</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H107" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I107" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K107" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="4" customFormat="1">
+      <c r="A108" s="19">
+        <v>107</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K108" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="4" customFormat="1">
+      <c r="C109" s="5"/>
+      <c r="E109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" s="4" customFormat="1">
+      <c r="E110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="E112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:9">
       <c r="E113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:9">
       <c r="E114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:9">
       <c r="E115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:9">
       <c r="E116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:9">
       <c r="E117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:9">
       <c r="E118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:9">
       <c r="E119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:9">
       <c r="E120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:9">
       <c r="E121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:9">
       <c r="E122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:9">
       <c r="E123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:9">
       <c r="E124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:9">
       <c r="E125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:9">
+      <c r="E126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:9">
+      <c r="E127" s="1"/>
       <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="5:9">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -5341,6 +5413,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5581,61 +5674,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01209340-F0B9-4FEB-870E-F887EE00E421}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}"/>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{E30EDB0F-0063-4EFF-A412-F147F604AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06C103B-6E96-46C5-B783-413515EF0904}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8941A71E-C047-41A6-8451-CFB9E8868D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,24 +17,13 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1093,7 +1082,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,7 +1340,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1367,7 +1356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1665,26 +1654,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1754,7 +1743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1787,7 +1776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1820,7 +1809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1888,7 +1877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1921,7 +1910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1954,7 +1943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1987,7 +1976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2022,7 +2011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2055,7 +2044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2066,7 +2055,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
@@ -2088,7 +2077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2123,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2156,7 +2145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2189,7 +2178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2222,7 +2211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2255,7 +2244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2288,7 +2277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2354,7 +2343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2387,7 +2376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2420,7 +2409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2453,7 +2442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2486,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2519,7 +2508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2554,7 +2543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2587,7 +2576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2622,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2657,7 +2646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2692,7 +2681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2725,7 +2714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1">
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2758,7 +2747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2791,7 +2780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2824,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2857,7 +2846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2890,7 +2879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2956,7 +2945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2989,7 +2978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -3022,7 +3011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1">
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -3055,7 +3044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -3088,7 +3077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3121,7 +3110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -3156,7 +3145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -3191,7 +3180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -3226,7 +3215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3261,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -3296,7 +3285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3331,7 +3320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3366,7 +3355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1">
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -3401,7 +3390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -3434,7 +3423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -3467,7 +3456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -3500,7 +3489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -3533,7 +3522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -3566,7 +3555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -3599,7 +3588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3632,7 +3621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -3665,7 +3654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3698,7 +3687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -3731,7 +3720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3764,7 +3753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -3797,7 +3786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3830,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -3863,7 +3852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -3896,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -3931,7 +3920,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -3964,7 +3953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -3997,7 +3986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -4030,7 +4019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -4063,7 +4052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -4096,7 +4085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -4129,7 +4118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -4162,7 +4151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -4195,7 +4184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -4228,7 +4217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -4261,7 +4250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1">
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -4294,7 +4283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -4327,7 +4316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -4360,7 +4349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -4393,7 +4382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -4426,7 +4415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -4459,7 +4448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -4492,7 +4481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -4525,7 +4514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -4558,7 +4547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -4591,7 +4580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -4624,7 +4613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -4657,7 +4646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -4690,7 +4679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -4723,7 +4712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -4756,7 +4745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -4789,7 +4778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -4822,7 +4811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -4855,7 +4844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -4888,7 +4877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="4" customFormat="1" ht="57.6">
+    <row r="97" spans="1:11" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -4923,7 +4912,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="30.75">
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -4958,7 +4947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="4" customFormat="1">
+    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -4993,7 +4982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="28.9">
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5028,7 +5017,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="4" customFormat="1">
+    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -5061,7 +5050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="115.15">
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5096,7 +5085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="4" customFormat="1">
+    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -5131,7 +5120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="273.60000000000002">
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" ht="45.75">
+    <row r="105" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -5201,7 +5190,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.15">
+    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -5236,7 +5225,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="4" customFormat="1">
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -5271,7 +5260,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="4" customFormat="1">
+    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -5306,93 +5295,93 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="4" customFormat="1">
+    <row r="109" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C109" s="5"/>
       <c r="E109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:11" s="4" customFormat="1">
+    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="5:9">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="5:9">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="5:9">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="5:9">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="5:9">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="5:9">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="5:9">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="5:9">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="5:9">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="5:9">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="5:9">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="5:9">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="5:9">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="5:9">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="5:9">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="5:9">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I129" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5401,8 +5390,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5413,27 +5402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5674,14 +5642,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8941A71E-C047-41A6-8451-CFB9E8868D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A55F3-3A1D-4660-96ED-E1B9BE3A2BA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="342">
   <si>
     <t>index</t>
   </si>
@@ -1077,12 +1077,27 @@
   <si>
     <t>AV850 (tea)</t>
   </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>5 (7_d_FR_w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,12 +1133,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1135,6 +1151,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1151,13 +1168,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1228,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1237,9 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1338,6 +1364,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1654,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,3631 +1703,3661 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="13" t="s">
+      <c r="J15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="J16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="13" t="s">
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="13" t="s">
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13" t="s">
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="13" t="s">
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13" t="s">
+      <c r="G23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="s">
+      <c r="G24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="G26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="8" t="s">
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="39" t="s">
+      <c r="G28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="40" t="s">
+      <c r="G29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16" t="s">
+      <c r="E30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="11" t="s">
+      <c r="G30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="H31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="13" t="s">
+      <c r="H32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="13" t="s">
+      <c r="H33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
+      <c r="E34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="13" t="s">
+      <c r="H34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="H35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
+      <c r="E36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="13" t="s">
+      <c r="H36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
+      <c r="E37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="13" t="s">
+      <c r="H37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13" t="s">
+      <c r="G38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
+      <c r="E39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="13" t="s">
+      <c r="H39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="s">
+      <c r="E40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="13" t="s">
+      <c r="H40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="s">
+      <c r="D41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="13" t="s">
+      <c r="H41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
+      <c r="E42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="13" t="s">
+      <c r="H42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="D43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="8" t="s">
+      <c r="H43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="E44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="15" t="s">
+      <c r="G44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="D45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="22" t="s">
+      <c r="G45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="25" t="s">
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="25" t="s">
+      <c r="G46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="22" t="s">
+      <c r="G47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="13" t="s">
+      <c r="E48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="15" t="s">
+      <c r="G48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="13" t="s">
+      <c r="D49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="G49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="20" t="s">
+      <c r="E50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="15" t="s">
+      <c r="G50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="D51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="22" t="s">
+      <c r="G51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13" t="s">
+      <c r="E52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="13" t="s">
+      <c r="H52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13" t="s">
+      <c r="D53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53" s="13" t="s">
+      <c r="H53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13" t="s">
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="13" t="s">
+      <c r="H54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13" t="s">
+      <c r="D55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" s="13" t="s">
+      <c r="H55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="25" t="s">
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="13" t="s">
+      <c r="G56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="25" t="s">
+      <c r="D57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="13" t="s">
+      <c r="G57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" s="20" t="s">
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59" s="20" t="s">
+      <c r="E59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" s="20" t="s">
+      <c r="D60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="25" t="s">
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="13" t="s">
+      <c r="G61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="25" t="s">
+      <c r="D62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13" t="s">
+      <c r="G62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="25" t="s">
+      <c r="E63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="20" t="s">
+      <c r="G63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="13" t="s">
+      <c r="G64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="25" t="s">
+      <c r="D65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="20" t="s">
+      <c r="G65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="16"/>
+      <c r="J65" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K65" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="26" t="s">
+      <c r="D66" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="9" t="s">
+      <c r="G66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="26" t="s">
+      <c r="D67" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="8" t="s">
+      <c r="G67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="19">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K68" s="13" t="s">
+      <c r="D68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K69" s="13" t="s">
+      <c r="D69" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K70" s="13" t="s">
+      <c r="D70" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K71" s="13" t="s">
+      <c r="D71" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K72" s="13" t="s">
+      <c r="D72" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K73" s="13" t="s">
+      <c r="D73" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K74" s="13" t="s">
+      <c r="D74" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K75" s="13" t="s">
+      <c r="D75" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K76" s="13" t="s">
+      <c r="D76" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K77" s="13" t="s">
+      <c r="D77" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K78" s="13" t="s">
+      <c r="D78" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="26" t="s">
+      <c r="D79" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="G79" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19" t="s">
+      <c r="G79" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K79" s="19" t="s">
+      <c r="K79" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="19">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="26" t="s">
+      <c r="D80" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="G80" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19" t="s">
+      <c r="G80" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K80" s="19" t="s">
+      <c r="K80" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="26" t="s">
+      <c r="D81" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19" t="s">
+      <c r="G81" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="19" t="s">
+      <c r="K81" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="19">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="26" t="s">
+      <c r="D82" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19" t="s">
+      <c r="G82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K82" s="19" t="s">
+      <c r="K82" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="26" t="s">
+      <c r="D83" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="G83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19" t="s">
+      <c r="G83" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="19" t="s">
+      <c r="K83" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="19">
+      <c r="A84" s="18">
         <v>83</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="26" t="s">
+      <c r="D84" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19" t="s">
+      <c r="G84" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="19" t="s">
+      <c r="K84" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+      <c r="A85" s="18">
         <v>84</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D85" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="26" t="s">
+      <c r="D85" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19" t="s">
+      <c r="G85" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="19" t="s">
+      <c r="K85" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="19">
+      <c r="A86" s="18">
         <v>85</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="26" t="s">
+      <c r="D86" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19" t="s">
+      <c r="G86" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="19" t="s">
+      <c r="K86" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="19">
+      <c r="A87" s="18">
         <v>86</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D87" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="D87" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="G87" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19" t="s">
+      <c r="G87" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K87" s="19" t="s">
+      <c r="K87" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="19">
+      <c r="A88" s="18">
         <v>87</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="26" t="s">
+      <c r="D88" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G88" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19" t="s">
+      <c r="G88" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K88" s="19" t="s">
+      <c r="K88" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="19">
+      <c r="A89" s="18">
         <v>88</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K89" s="19" t="s">
+      <c r="D89" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="25"/>
+      <c r="G89" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="19">
+      <c r="A90" s="18">
         <v>89</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="26"/>
-      <c r="G90" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K90" s="19" t="s">
+      <c r="D90" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="19">
+      <c r="A91" s="18">
         <v>90</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="28" t="s">
+      <c r="D91" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="G91" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19" t="s">
+      <c r="G91" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K91" s="19" t="s">
+      <c r="K91" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="19">
+      <c r="A92" s="18">
         <v>91</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="19" t="s">
+      <c r="D92" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G92" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19" t="s">
+      <c r="G92" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="19" t="s">
+      <c r="K92" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="19">
+      <c r="A93" s="18">
         <v>92</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K93" s="19" t="s">
+      <c r="D93" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="19">
+      <c r="A94" s="18">
         <v>93</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I94" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K94" s="19" t="s">
+      <c r="D94" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="19">
+      <c r="A95" s="18">
         <v>94</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="19" t="s">
+      <c r="D95" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="G95" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19" t="s">
+      <c r="G95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="19" t="s">
+      <c r="K95" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="19">
+      <c r="A96" s="18">
         <v>95</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D96" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="19" t="s">
+      <c r="D96" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19" t="s">
+      <c r="I96" s="18"/>
+      <c r="J96" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K96" s="19" t="s">
+      <c r="K96" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="19">
+      <c r="A97" s="18">
         <v>96</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="31" t="s">
+      <c r="D97" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="I97" s="33" t="s">
+      <c r="I97" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="J97" s="29" t="s">
+      <c r="J97" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K97" s="29" t="s">
+      <c r="K97" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="19">
+      <c r="A98" s="18">
         <v>97</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="29" t="s">
+      <c r="D98" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="I98" s="33" t="s">
+      <c r="I98" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="J98" s="29" t="s">
+      <c r="J98" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K98" s="29" t="s">
+      <c r="K98" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19">
+      <c r="A99" s="18">
         <v>98</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="35" t="s">
+      <c r="D99" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="G99" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" s="35" t="s">
+      <c r="G99" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="J99" s="29" t="s">
+      <c r="J99" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K99" s="29" t="s">
+      <c r="K99" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="19">
+      <c r="A100" s="18">
         <v>99</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="29" t="s">
+      <c r="D100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="I100" s="33" t="s">
+      <c r="I100" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="J100" s="29" t="s">
+      <c r="J100" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K100" s="29" t="s">
+      <c r="K100" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19">
+      <c r="A101" s="18">
         <v>100</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I101" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J101" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K101" s="29" t="s">
+      <c r="D101" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K101" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="19">
+      <c r="A102" s="18">
         <v>101</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="33" t="s">
+      <c r="D102" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I102" s="33" t="s">
+      <c r="I102" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="J102" s="29" t="s">
+      <c r="J102" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K102" s="29" t="s">
+      <c r="K102" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19">
+      <c r="A103" s="18">
         <v>102</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="37" t="s">
+      <c r="D103" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="G103" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="37" t="s">
+      <c r="G103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="J103" s="29" t="s">
+      <c r="J103" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K103" s="29" t="s">
+      <c r="K103" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A104" s="19">
+      <c r="A104" s="18">
         <v>103</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D104" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="31" t="s">
+      <c r="D104" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H104" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="I104" s="33" t="s">
+      <c r="I104" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="J104" s="29" t="s">
+      <c r="J104" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K104" s="29" t="s">
+      <c r="K104" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="A105" s="18">
         <v>104</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="D105" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="33" t="s">
+      <c r="D105" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="I105" s="38" t="s">
+      <c r="I105" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="J105" s="29" t="s">
+      <c r="J105" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K105" s="29" t="s">
+      <c r="K105" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="19">
+      <c r="A106" s="18">
         <v>105</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="D106" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="33" t="s">
+      <c r="D106" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H106" s="33" t="s">
+      <c r="H106" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="I106" s="33" t="s">
+      <c r="I106" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="J106" s="29" t="s">
+      <c r="J106" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K106" s="29" t="s">
+      <c r="K106" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19">
+      <c r="A107" s="18">
         <v>106</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="29" t="s">
+      <c r="D107" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="I107" s="38" t="s">
+      <c r="I107" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="J107" s="29" t="s">
+      <c r="J107" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K107" s="29" t="s">
+      <c r="K107" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19">
+      <c r="A108" s="18">
         <v>107</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="D108" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="35" t="s">
+      <c r="D108" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="G108" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="35" t="s">
+      <c r="G108" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="J108" s="29" t="s">
+      <c r="J108" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="K108" s="29" t="s">
+      <c r="K108" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="5"/>
-      <c r="E109" s="3"/>
-      <c r="I109" s="3"/>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="46">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J109" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="48" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
@@ -5380,8 +5439,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5390,8 +5449,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5402,6 +5461,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5642,15 +5710,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5664,6 +5723,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5682,14 +5749,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A55F3-3A1D-4660-96ED-E1B9BE3A2BA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4130545-D28E-4A74-8653-1BB17205105B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -233,9 +233,6 @@
     <t>CONTRACEPTIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of contraceptive pills or injections </t>
-  </si>
-  <si>
     <t>LIVE_BIRTHS</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>PREV_DIAB</t>
   </si>
   <si>
-    <t>History of diabetes (T2DM)</t>
-  </si>
-  <si>
     <t>prev_dm_16</t>
   </si>
   <si>
@@ -380,21 +374,12 @@
     <t>MELANOMA_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Skin cancer</t>
-  </si>
-  <si>
     <t>MAMMO_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Mammography</t>
-  </si>
-  <si>
     <t>CERVICAL_SCREEN</t>
   </si>
   <si>
-    <t>Cervical screening, smear test</t>
-  </si>
-  <si>
     <t>MED_STAT</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>TYPE_CANCER</t>
   </si>
   <si>
-    <t>Type of cancer</t>
-  </si>
-  <si>
     <t>AGE_CANCER</t>
   </si>
   <si>
@@ -629,18 +611,12 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Body Mass index at baseline</t>
-  </si>
-  <si>
     <t>atbmi</t>
   </si>
   <si>
     <t>BMI_FUP</t>
   </si>
   <si>
-    <t>Body Mass index at follow-up</t>
-  </si>
-  <si>
     <t>k4tbmi</t>
   </si>
   <si>
@@ -656,15 +632,9 @@
     <t>BMI_SDS</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at baseline (children studies)</t>
-  </si>
-  <si>
     <t>BMI_SDS_FUP</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
-  </si>
-  <si>
     <t>WAIST_FUP</t>
   </si>
   <si>
@@ -704,15 +674,9 @@
     <t>BODY_FAT_FUP</t>
   </si>
   <si>
-    <t>Body fat at follow-up</t>
-  </si>
-  <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat at baseline</t>
-  </si>
-  <si>
     <t>AGE_ANTH_FUP</t>
   </si>
   <si>
@@ -848,9 +812,6 @@
     <t>GL</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily glycaemic load </t>
-  </si>
-  <si>
     <t>SODIUM</t>
   </si>
   <si>
@@ -899,9 +860,6 @@
     <t>CAKES_12</t>
   </si>
   <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
-  </si>
-  <si>
     <t>AV540; AV570</t>
   </si>
   <si>
@@ -914,9 +872,6 @@
     <t>FRUITVEG_JUICE_1301</t>
   </si>
   <si>
-    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
-  </si>
-  <si>
     <t>AV810</t>
   </si>
   <si>
@@ -924,9 +879,6 @@
   </si>
   <si>
     <t>SOFTDRINKS_1302</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
   </si>
   <si>
     <t>AV825; AV829</t>
@@ -971,9 +923,6 @@
     <t>LEGUMES_TOT_03</t>
   </si>
   <si>
-    <t>Legumes intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">AV491 </t>
   </si>
   <si>
@@ -981,9 +930,6 @@
   </si>
   <si>
     <t>FRUITS_TOT_04</t>
-  </si>
-  <si>
-    <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
     <t>AV310; AV311; AV315;AV321; AV323;
@@ -1091,6 +1037,60 @@
   </si>
   <si>
     <t>5 (7_d_FR_w)</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections</t>
+  </si>
+  <si>
+    <t>History of diabetes</t>
+  </si>
+  <si>
+    <t>Screening, skin cancer</t>
+  </si>
+  <si>
+    <t>Screening, mammography</t>
+  </si>
+  <si>
+    <t>Screening cervical, smear test</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18)</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline</t>
+  </si>
+  <si>
+    <t>Daily glycaemic load</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
+    <t>Total legumes intake [g/d]</t>
+  </si>
+  <si>
+    <t>Total fruit intake [g/d]</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="C2" sqref="C2:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,7 +2248,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -2278,10 +2278,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -2311,10 +2311,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
@@ -2344,10 +2344,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>26</v>
@@ -2377,19 +2377,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>23</v>
@@ -2410,10 +2410,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>26</v>
@@ -2443,19 +2443,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>23</v>
@@ -2476,10 +2476,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>21</v>
@@ -2488,7 +2488,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>23</v>
@@ -2509,10 +2509,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -2521,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>23</v>
@@ -2542,10 +2542,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -2554,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>23</v>
@@ -2563,7 +2563,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>17</v>
@@ -2577,10 +2577,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -2610,10 +2610,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -2622,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>23</v>
@@ -2631,7 +2631,7 @@
         <v>23</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>58</v>
@@ -2645,10 +2645,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -2657,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>23</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>58</v>
@@ -2680,10 +2680,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -2692,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>23</v>
@@ -2701,7 +2701,7 @@
         <v>23</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>58</v>
@@ -2715,10 +2715,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>37</v>
@@ -2748,10 +2748,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>37</v>
@@ -2781,10 +2781,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>37</v>
@@ -2803,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>38</v>
@@ -2814,10 +2814,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>37</v>
@@ -2847,10 +2847,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>37</v>
@@ -2880,10 +2880,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>37</v>
@@ -2913,10 +2913,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>37</v>
@@ -2946,10 +2946,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -2958,7 +2958,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
@@ -2979,10 +2979,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>37</v>
@@ -3012,10 +3012,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>37</v>
@@ -3045,10 +3045,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>37</v>
@@ -3078,10 +3078,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>37</v>
@@ -3111,10 +3111,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>37</v>
@@ -3144,10 +3144,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -3156,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>23</v>
@@ -3165,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>17</v>
@@ -3179,10 +3179,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>26</v>
@@ -3191,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>23</v>
@@ -3200,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>17</v>
@@ -3214,10 +3214,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -3226,7 +3226,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>23</v>
@@ -3235,7 +3235,7 @@
         <v>23</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>17</v>
@@ -3249,10 +3249,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>26</v>
@@ -3261,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>23</v>
@@ -3270,7 +3270,7 @@
         <v>23</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>17</v>
@@ -3284,10 +3284,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -3296,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>23</v>
@@ -3305,7 +3305,7 @@
         <v>23</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>17</v>
@@ -3319,10 +3319,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>26</v>
@@ -3331,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>23</v>
@@ -3340,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>17</v>
@@ -3354,10 +3354,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -3366,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>23</v>
@@ -3375,7 +3375,7 @@
         <v>23</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>17</v>
@@ -3389,10 +3389,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
@@ -3401,7 +3401,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>23</v>
@@ -3410,7 +3410,7 @@
         <v>23</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>17</v>
@@ -3424,10 +3424,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>21</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>37</v>
@@ -3457,10 +3457,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>26</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>37</v>
@@ -3490,10 +3490,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>21</v>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>37</v>
@@ -3523,10 +3523,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>26</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>37</v>
@@ -3556,10 +3556,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>23</v>
@@ -3589,10 +3589,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>26</v>
@@ -3601,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>23</v>
@@ -3622,10 +3622,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>21</v>
@@ -3655,10 +3655,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>181</v>
+        <v>329</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -3688,10 +3688,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>26</v>
@@ -3721,10 +3721,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>21</v>
@@ -3733,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>23</v>
@@ -3754,10 +3754,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>26</v>
@@ -3766,7 +3766,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>23</v>
@@ -3787,10 +3787,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -3799,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>23</v>
@@ -3820,10 +3820,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>23</v>
@@ -3853,10 +3853,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>26</v>
@@ -3865,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>23</v>
@@ -3886,10 +3886,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>26</v>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>23</v>
@@ -3919,10 +3919,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>26</v>
@@ -3931,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>23</v>
@@ -3940,13 +3940,13 @@
         <v>23</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>26</v>
@@ -3987,10 +3987,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>26</v>
@@ -4020,10 +4020,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>26</v>
@@ -4053,10 +4053,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>26</v>
@@ -4086,10 +4086,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>26</v>
@@ -4119,10 +4119,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>26</v>
@@ -4152,10 +4152,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>26</v>
@@ -4185,10 +4185,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>26</v>
@@ -4218,10 +4218,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>26</v>
@@ -4251,10 +4251,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>26</v>
@@ -4284,10 +4284,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>26</v>
@@ -4317,10 +4317,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>26</v>
@@ -4329,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>23</v>
@@ -4350,10 +4350,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>26</v>
@@ -4362,7 +4362,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>23</v>
@@ -4383,10 +4383,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>26</v>
@@ -4395,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>23</v>
@@ -4416,10 +4416,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>26</v>
@@ -4428,7 +4428,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>23</v>
@@ -4449,10 +4449,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>26</v>
@@ -4461,7 +4461,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>23</v>
@@ -4482,10 +4482,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>26</v>
@@ -4494,7 +4494,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>23</v>
@@ -4515,10 +4515,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>26</v>
@@ -4527,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>23</v>
@@ -4548,10 +4548,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>26</v>
@@ -4560,7 +4560,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>23</v>
@@ -4581,10 +4581,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>26</v>
@@ -4593,7 +4593,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>23</v>
@@ -4614,10 +4614,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>26</v>
@@ -4626,7 +4626,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>23</v>
@@ -4647,10 +4647,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>26</v>
@@ -4680,10 +4680,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>26</v>
@@ -4713,10 +4713,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>26</v>
@@ -4725,7 +4725,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>23</v>
@@ -4746,10 +4746,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>26</v>
@@ -4758,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>23</v>
@@ -4779,10 +4779,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>26</v>
@@ -4812,10 +4812,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>26</v>
@@ -4845,10 +4845,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>26</v>
@@ -4857,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>23</v>
@@ -4878,10 +4878,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>26</v>
@@ -4890,13 +4890,13 @@
         <v>14</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4911,10 +4911,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>26</v>
@@ -4923,22 +4923,22 @@
         <v>14</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I97" s="32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J97" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4946,10 +4946,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>26</v>
@@ -4958,22 +4958,22 @@
         <v>14</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="I98" s="32" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4981,10 +4981,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>26</v>
@@ -4993,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>23</v>
@@ -5002,10 +5002,10 @@
         <v>23</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="J99" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>18</v>
@@ -5016,10 +5016,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>26</v>
@@ -5028,22 +5028,22 @@
         <v>14</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5051,10 +5051,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>26</v>
@@ -5084,10 +5084,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>26</v>
@@ -5096,19 +5096,19 @@
         <v>14</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I102" s="32" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J102" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K102" s="28" t="s">
         <v>48</v>
@@ -5119,10 +5119,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D103" s="28" t="s">
         <v>26</v>
@@ -5131,7 +5131,7 @@
         <v>14</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>23</v>
@@ -5140,10 +5140,10 @@
         <v>23</v>
       </c>
       <c r="I103" s="36" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J103" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K103" s="28" t="s">
         <v>18</v>
@@ -5154,10 +5154,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>26</v>
@@ -5166,22 +5166,22 @@
         <v>14</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J104" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5189,10 +5189,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D105" s="28" t="s">
         <v>26</v>
@@ -5201,22 +5201,22 @@
         <v>14</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5224,10 +5224,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D106" s="28" t="s">
         <v>26</v>
@@ -5236,22 +5236,22 @@
         <v>14</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5259,10 +5259,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>26</v>
@@ -5271,22 +5271,22 @@
         <v>14</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5294,10 +5294,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D108" s="28" t="s">
         <v>26</v>
@@ -5306,7 +5306,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G108" s="28" t="s">
         <v>23</v>
@@ -5315,10 +5315,10 @@
         <v>23</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>18</v>
@@ -5329,10 +5329,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D109" s="46" t="s">
         <v>21</v>
@@ -5341,16 +5341,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="46" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>17</v>
@@ -5439,8 +5439,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5449,8 +5449,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5461,12 +5461,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5711,21 +5714,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5750,12 +5753,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4130545-D28E-4A74-8653-1BB17205105B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20740" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="343">
   <si>
     <t>index</t>
   </si>
@@ -170,9 +169,6 @@
     <t>atcigsmk</t>
   </si>
   <si>
-    <t>smoking status with three categories</t>
-  </si>
-  <si>
     <t>tentive</t>
   </si>
   <si>
@@ -768,9 +764,6 @@
   </si>
   <si>
     <t>Total sugar intake [g/d]</t>
-  </si>
-  <si>
-    <t>akmd</t>
   </si>
   <si>
     <t>ADD_SUGARS</t>
@@ -1092,11 +1085,20 @@
   <si>
     <t>Total fruit intake [g/d]</t>
   </si>
+  <si>
+    <t>akmosa + akdisa</t>
+  </si>
+  <si>
+    <t>akmosa; akdisa</t>
+  </si>
+  <si>
+    <t>akmosa (monosaccharides) + akdisa (disaccharides)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1680,29 +1682,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C109"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.36328125" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2030,25 +2032,23 @@
       <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>26</v>
@@ -2070,18 +2070,18 @@
         <v>37</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>26</v>
@@ -2103,53 +2103,53 @@
         <v>37</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -2174,15 +2174,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
@@ -2198,7 +2198,7 @@
         <v>37</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>37</v>
@@ -2207,15 +2207,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
@@ -2231,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>37</v>
@@ -2240,15 +2240,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -2264,7 +2264,7 @@
         <v>37</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>37</v>
@@ -2273,15 +2273,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -2306,15 +2306,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
@@ -2339,15 +2339,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>26</v>
@@ -2372,24 +2372,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>23</v>
@@ -2405,15 +2405,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>26</v>
@@ -2438,24 +2438,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>23</v>
@@ -2471,15 +2471,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>21</v>
@@ -2488,7 +2488,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>23</v>
@@ -2504,15 +2504,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -2521,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>23</v>
@@ -2537,15 +2537,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -2554,33 +2554,33 @@
         <v>14</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -2605,15 +2605,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -2622,33 +2622,33 @@
         <v>14</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>95</v>
-      </c>
       <c r="J28" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -2657,33 +2657,33 @@
         <v>14</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>99</v>
-      </c>
       <c r="J29" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -2692,33 +2692,33 @@
         <v>14</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="J30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>37</v>
@@ -2743,15 +2743,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>37</v>
@@ -2776,15 +2776,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>37</v>
@@ -2803,21 +2803,21 @@
         <v>38</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>37</v>
@@ -2842,15 +2842,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>37</v>
@@ -2875,15 +2875,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>37</v>
@@ -2908,15 +2908,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>37</v>
@@ -2941,15 +2941,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -2958,7 +2958,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
@@ -2974,15 +2974,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>37</v>
@@ -3007,15 +3007,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>37</v>
@@ -3040,15 +3040,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>37</v>
@@ -3073,15 +3073,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>37</v>
@@ -3106,15 +3106,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>37</v>
@@ -3139,15 +3139,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -3156,16 +3156,16 @@
         <v>14</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>17</v>
@@ -3174,33 +3174,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>17</v>
@@ -3209,15 +3209,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -3226,16 +3226,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>17</v>
@@ -3244,33 +3244,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="24" t="s">
+      <c r="G47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>17</v>
@@ -3279,15 +3279,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -3296,16 +3296,16 @@
         <v>14</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>17</v>
@@ -3314,33 +3314,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>17</v>
@@ -3349,15 +3349,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -3366,16 +3366,16 @@
         <v>14</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>17</v>
@@ -3384,33 +3384,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="D51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>17</v>
@@ -3419,15 +3419,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>21</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>37</v>
@@ -3452,15 +3452,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>26</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>37</v>
@@ -3485,15 +3485,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>21</v>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>37</v>
@@ -3518,15 +3518,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>26</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>37</v>
@@ -3551,15 +3551,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>23</v>
@@ -3584,24 +3584,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>23</v>
@@ -3617,15 +3617,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>21</v>
@@ -3650,15 +3650,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -3683,15 +3683,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>26</v>
@@ -3716,15 +3716,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>21</v>
@@ -3733,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>23</v>
@@ -3749,24 +3749,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="D62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>182</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>183</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>23</v>
@@ -3782,15 +3782,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -3799,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>23</v>
@@ -3815,15 +3815,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>23</v>
@@ -3848,16 +3848,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>23</v>
@@ -3881,24 +3881,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="18">
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>23</v>
@@ -3914,50 +3914,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="G67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K67" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>26</v>
@@ -3982,15 +3982,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>26</v>
@@ -4015,15 +4015,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>26</v>
@@ -4048,15 +4048,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>26</v>
@@ -4081,15 +4081,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>26</v>
@@ -4114,15 +4114,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>26</v>
@@ -4147,15 +4147,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>26</v>
@@ -4180,15 +4180,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>26</v>
@@ -4213,15 +4213,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18">
         <v>75</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>26</v>
@@ -4246,15 +4246,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18">
         <v>76</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>26</v>
@@ -4279,15 +4279,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18">
         <v>77</v>
       </c>
       <c r="B78" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="41" t="s">
         <v>215</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>216</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>26</v>
@@ -4312,24 +4312,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="18">
         <v>78</v>
       </c>
       <c r="B79" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>23</v>
@@ -4345,24 +4345,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="18">
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>23</v>
@@ -4378,24 +4378,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>23</v>
@@ -4411,24 +4411,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>23</v>
@@ -4444,24 +4444,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>23</v>
@@ -4477,24 +4477,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="D84" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>23</v>
@@ -4510,24 +4510,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>23</v>
@@ -4543,24 +4543,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>23</v>
@@ -4576,24 +4576,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="D87" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>23</v>
@@ -4609,16 +4609,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="D88" s="18" t="s">
         <v>26</v>
       </c>
@@ -4626,31 +4626,33 @@
         <v>14</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="18"/>
+        <v>340</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="J88" s="18" t="s">
         <v>17</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>26</v>
@@ -4675,15 +4677,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>26</v>
@@ -4708,24 +4710,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="18">
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>253</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>23</v>
@@ -4741,24 +4743,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>23</v>
@@ -4774,15 +4776,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>26</v>
@@ -4807,15 +4809,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="18">
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>26</v>
@@ -4840,24 +4842,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>260</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>23</v>
@@ -4873,30 +4875,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="G96" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>267</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4906,155 +4908,155 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="G97" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H97" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D97" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="30" t="s">
+      <c r="I97" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G97" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H97" s="31" t="s">
+      <c r="J97" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="I97" s="32" t="s">
+      <c r="K97" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="J97" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C98" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="I98" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G98" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>278</v>
-      </c>
       <c r="J98" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>281</v>
-      </c>
       <c r="J99" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="28" t="s">
+      <c r="I100" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="I100" s="32" t="s">
-        <v>285</v>
-      </c>
       <c r="J100" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>26</v>
@@ -5079,260 +5081,260 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="G102" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H102" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D102" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="32" t="s">
+      <c r="I102" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="G102" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H102" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="I102" s="32" t="s">
-        <v>292</v>
-      </c>
       <c r="J102" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>295</v>
-      </c>
       <c r="J103" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K103" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H104" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="30" t="s">
+      <c r="I104" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="G104" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H104" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="I104" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="J104" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="G105" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H105" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="32" t="s">
+      <c r="I105" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H105" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="I105" s="37" t="s">
-        <v>304</v>
-      </c>
       <c r="J105" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="G106" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H106" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D106" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="32" t="s">
+      <c r="I106" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="J106" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="G107" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D107" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="I107" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I107" s="37" t="s">
-        <v>314</v>
-      </c>
       <c r="J107" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="G108" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D108" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>318</v>
-      </c>
       <c r="J108" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="46">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D109" s="46" t="s">
         <v>21</v>
@@ -5341,16 +5343,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>17</v>
@@ -5359,88 +5361,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5449,8 +5451,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5473,6 +5475,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5713,15 +5724,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
@@ -5734,6 +5736,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5750,12 +5760,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="342">
   <si>
     <t>index</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>atcigsmk</t>
-  </si>
-  <si>
-    <t>tentive</t>
   </si>
   <si>
     <t>compatible</t>
@@ -1685,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2034,10 +2031,10 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2045,10 +2042,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>26</v>
@@ -2070,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2078,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>26</v>
@@ -2103,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2111,31 +2108,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>18</v>
@@ -2146,10 +2143,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -2179,10 +2176,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
@@ -2198,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>37</v>
@@ -2212,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
@@ -2231,7 +2228,7 @@
         <v>37</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>37</v>
@@ -2245,10 +2242,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -2264,7 +2261,7 @@
         <v>37</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>37</v>
@@ -2278,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -2311,10 +2308,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
@@ -2344,10 +2341,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>26</v>
@@ -2377,19 +2374,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>23</v>
@@ -2410,10 +2407,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>26</v>
@@ -2443,19 +2440,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>23</v>
@@ -2476,10 +2473,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>21</v>
@@ -2488,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>23</v>
@@ -2509,10 +2506,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -2521,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>23</v>
@@ -2542,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
@@ -2554,22 +2551,22 @@
         <v>14</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2577,10 +2574,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -2610,10 +2607,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -2622,19 +2619,19 @@
         <v>14</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>94</v>
-      </c>
       <c r="J28" s="12" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>18</v>
@@ -2645,10 +2642,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -2657,19 +2654,19 @@
         <v>14</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>98</v>
-      </c>
       <c r="J29" s="12" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>18</v>
@@ -2680,10 +2677,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -2692,19 +2689,19 @@
         <v>14</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="J30" s="12" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>18</v>
@@ -2715,10 +2712,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
@@ -2728,7 +2725,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>37</v>
@@ -2748,10 +2745,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
@@ -2761,7 +2758,7 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>37</v>
@@ -2781,10 +2778,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -2794,7 +2791,7 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>37</v>
@@ -2803,7 +2800,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>38</v>
@@ -2814,10 +2811,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>21</v>
@@ -2827,7 +2824,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>37</v>
@@ -2847,10 +2844,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>21</v>
@@ -2860,7 +2857,7 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>37</v>
@@ -2880,10 +2877,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
@@ -2893,7 +2890,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>37</v>
@@ -2913,10 +2910,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -2926,7 +2923,7 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>37</v>
@@ -2946,10 +2943,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
@@ -2958,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
@@ -2979,10 +2976,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -2992,7 +2989,7 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>37</v>
@@ -3012,10 +3009,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>21</v>
@@ -3025,7 +3022,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>37</v>
@@ -3045,10 +3042,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
@@ -3058,7 +3055,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>37</v>
@@ -3078,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>21</v>
@@ -3091,7 +3088,7 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>37</v>
@@ -3111,10 +3108,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
@@ -3124,7 +3121,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>37</v>
@@ -3144,10 +3141,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>21</v>
@@ -3156,16 +3153,16 @@
         <v>14</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>17</v>
@@ -3179,28 +3176,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>17</v>
@@ -3214,10 +3211,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>21</v>
@@ -3226,16 +3223,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>17</v>
@@ -3249,28 +3246,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="24" t="s">
+      <c r="G47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>17</v>
@@ -3284,10 +3281,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -3296,16 +3293,16 @@
         <v>14</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>17</v>
@@ -3319,28 +3316,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>17</v>
@@ -3354,10 +3351,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>21</v>
@@ -3366,16 +3363,16 @@
         <v>14</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>17</v>
@@ -3389,28 +3386,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="D51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>17</v>
@@ -3424,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>21</v>
@@ -3437,7 +3434,7 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>37</v>
@@ -3457,10 +3454,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>26</v>
@@ -3470,7 +3467,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>37</v>
@@ -3490,10 +3487,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>21</v>
@@ -3503,7 +3500,7 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>37</v>
@@ -3523,10 +3520,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>26</v>
@@ -3536,7 +3533,7 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>37</v>
@@ -3556,10 +3553,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>21</v>
@@ -3568,7 +3565,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>23</v>
@@ -3589,19 +3586,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>23</v>
@@ -3622,10 +3619,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>21</v>
@@ -3655,10 +3652,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>21</v>
@@ -3688,10 +3685,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>26</v>
@@ -3721,10 +3718,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>21</v>
@@ -3733,7 +3730,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>23</v>
@@ -3754,19 +3751,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="D62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>181</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>182</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>23</v>
@@ -3787,10 +3784,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -3799,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>23</v>
@@ -3820,10 +3817,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>21</v>
@@ -3832,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>23</v>
@@ -3853,11 +3850,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
@@ -3865,7 +3862,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>23</v>
@@ -3886,19 +3883,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>23</v>
@@ -3919,34 +3916,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="G67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3954,10 +3951,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>26</v>
@@ -3987,10 +3984,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>26</v>
@@ -4020,10 +4017,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>26</v>
@@ -4053,10 +4050,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>26</v>
@@ -4086,10 +4083,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>26</v>
@@ -4119,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>26</v>
@@ -4152,10 +4149,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>26</v>
@@ -4185,10 +4182,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>26</v>
@@ -4218,10 +4215,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>26</v>
@@ -4251,10 +4248,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>26</v>
@@ -4284,10 +4281,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="41" t="s">
         <v>214</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>215</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>26</v>
@@ -4317,19 +4314,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>23</v>
@@ -4350,19 +4347,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>220</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>221</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>23</v>
@@ -4383,19 +4380,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>23</v>
@@ -4416,19 +4413,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>23</v>
@@ -4449,19 +4446,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>23</v>
@@ -4482,19 +4479,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="D84" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>23</v>
@@ -4515,19 +4512,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>23</v>
@@ -4548,19 +4545,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>23</v>
@@ -4581,19 +4578,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="D87" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>242</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>23</v>
@@ -4614,11 +4611,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>244</v>
-      </c>
       <c r="D88" s="18" t="s">
         <v>26</v>
       </c>
@@ -4626,22 +4623,22 @@
         <v>14</v>
       </c>
       <c r="F88" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="I88" s="18" t="s">
         <v>341</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>342</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>17</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4649,10 +4646,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>26</v>
@@ -4682,10 +4679,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>26</v>
@@ -4715,19 +4712,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>250</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>251</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>23</v>
@@ -4748,19 +4745,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="D92" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>23</v>
@@ -4781,10 +4778,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>26</v>
@@ -4814,10 +4811,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>26</v>
@@ -4847,19 +4844,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="D95" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>23</v>
@@ -4880,25 +4877,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="D96" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4913,34 +4910,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="D97" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D97" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="30" t="s">
+      <c r="G97" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H97" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G97" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H97" s="31" t="s">
+      <c r="I97" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="I97" s="32" t="s">
+      <c r="J97" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J97" s="28" t="s">
+      <c r="K97" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -4948,34 +4945,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C98" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="G98" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="G98" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H98" s="28" t="s">
+      <c r="I98" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="I98" s="32" t="s">
-        <v>276</v>
-      </c>
       <c r="J98" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K98" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K98" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -4983,31 +4980,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="34" t="s">
+      <c r="G99" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="G99" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>279</v>
-      </c>
       <c r="J99" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>18</v>
@@ -5018,34 +5015,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="28" t="s">
+      <c r="G100" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H100" s="28" t="s">
+      <c r="I100" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="I100" s="32" t="s">
-        <v>283</v>
-      </c>
       <c r="J100" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K100" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K100" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -5053,10 +5050,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>284</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>285</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>26</v>
@@ -5086,34 +5083,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="D102" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="32" t="s">
+      <c r="G102" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H102" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="G102" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H102" s="32" t="s">
+      <c r="I102" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="I102" s="32" t="s">
-        <v>290</v>
-      </c>
       <c r="J102" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -5121,31 +5118,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="36" t="s">
+      <c r="G103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="G103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>293</v>
-      </c>
       <c r="J103" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K103" s="28" t="s">
         <v>18</v>
@@ -5156,34 +5153,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="30" t="s">
+      <c r="G104" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H104" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="G104" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H104" s="30" t="s">
+      <c r="I104" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="I104" s="32" t="s">
-        <v>297</v>
-      </c>
       <c r="J104" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K104" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5191,34 +5188,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="D105" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="32" t="s">
+      <c r="G105" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H105" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H105" s="32" t="s">
+      <c r="I105" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="I105" s="37" t="s">
-        <v>302</v>
-      </c>
       <c r="J105" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K105" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K105" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5226,34 +5223,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="D106" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="D106" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="32" t="s">
+      <c r="G106" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H106" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H106" s="32" t="s">
+      <c r="I106" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="I106" s="32" t="s">
-        <v>307</v>
-      </c>
       <c r="J106" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K106" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -5261,34 +5258,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="D107" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D107" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="G107" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H107" s="28" t="s">
+      <c r="I107" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="I107" s="37" t="s">
-        <v>312</v>
-      </c>
       <c r="J107" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K107" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="K107" s="28" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -5296,31 +5293,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="D108" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="D108" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="34" t="s">
+      <c r="G108" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="G108" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>316</v>
-      </c>
       <c r="J108" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>18</v>
@@ -5331,10 +5328,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" t="s">
         <v>317</v>
-      </c>
-      <c r="C109" t="s">
-        <v>318</v>
       </c>
       <c r="D109" s="46" t="s">
         <v>21</v>
@@ -5343,16 +5340,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>17</v>
@@ -5441,8 +5438,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5451,8 +5448,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5463,6 +5460,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5472,15 +5478,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5725,20 +5722,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB57DD3-E750-4E9A-8336-D7CC8674E9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20740" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="343">
   <si>
     <t>index</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Participant identification number</t>
   </si>
   <si>
-    <t xml:space="preserve">integer  </t>
-  </si>
-  <si>
     <t>KORA_S1_P2</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>Age at exposure measure</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -151,15 +146,9 @@
     <t>TOT_PA_QX</t>
   </si>
   <si>
-    <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
     <t>TOT_PA_AC</t>
   </si>
   <si>
-    <t>Physical activity from accelerometry data</t>
-  </si>
-  <si>
     <t>SMOKE_ST</t>
   </si>
   <si>
@@ -175,24 +164,15 @@
     <t>TOBACCO_PY</t>
   </si>
   <si>
-    <t>Cumulative lifetime tobacco exposure</t>
-  </si>
-  <si>
     <t>incompatible</t>
   </si>
   <si>
     <t>TOBACCO_D</t>
   </si>
   <si>
-    <t>Amount of daily tobacco smoked</t>
-  </si>
-  <si>
     <t>AGE_SMOKE_QUIT</t>
   </si>
   <si>
-    <t>Age at time of quitting smoking</t>
-  </si>
-  <si>
     <t>atstsalt</t>
   </si>
   <si>
@@ -229,42 +209,24 @@
     <t>LIVE_BIRTHS</t>
   </si>
   <si>
-    <t>Number of live births given</t>
-  </si>
-  <si>
     <t>AGE_FIRST_BIRTH</t>
   </si>
   <si>
-    <t>Age at the first given birth</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
-    <t>Triglycerides measured from blood samples</t>
-  </si>
-  <si>
     <t>CHOL</t>
   </si>
   <si>
-    <t>Total cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>al_choln</t>
   </si>
   <si>
     <t>LDL</t>
   </si>
   <si>
-    <t>LDL cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>HDL</t>
   </si>
   <si>
-    <t>HDL cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>al_hdln</t>
   </si>
   <si>
@@ -397,9 +359,6 @@
     <t>AGE_CVD</t>
   </si>
   <si>
-    <t>Age at diagnosis of CVD</t>
-  </si>
-  <si>
     <t>INC_ANGINA</t>
   </si>
   <si>
@@ -409,9 +368,6 @@
     <t>AGE_ANGINA</t>
   </si>
   <si>
-    <t>Age at diagnosis of angina pectoris</t>
-  </si>
-  <si>
     <t>INC_MI</t>
   </si>
   <si>
@@ -427,9 +383,6 @@
     <t>AGE_MI</t>
   </si>
   <si>
-    <t>Age at diagnosis of myocardial infarction</t>
-  </si>
-  <si>
     <t>mi_alter_16</t>
   </si>
   <si>
@@ -451,9 +404,6 @@
     <t>AGE_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of stroke</t>
-  </si>
-  <si>
     <t>apo_alter_16</t>
   </si>
   <si>
@@ -475,9 +425,6 @@
     <t>AGE_ISC_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of cerebral infarction (ischaemic stroke)</t>
-  </si>
-  <si>
     <t>age at end of ischaemic stroke</t>
   </si>
   <si>
@@ -496,9 +443,6 @@
     <t>AGE_HAEMO_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of haemorrhagic stroke</t>
-  </si>
-  <si>
     <t>age at end of follow-up for haemorrhagic stroke</t>
   </si>
   <si>
@@ -511,9 +455,6 @@
     <t>AGE_HYP</t>
   </si>
   <si>
-    <t>Age at diagnosis of essential hypertension</t>
-  </si>
-  <si>
     <t>INC_HF</t>
   </si>
   <si>
@@ -523,9 +464,6 @@
     <t>AGE_HF</t>
   </si>
   <si>
-    <t>Age at diagnosis of heart failure</t>
-  </si>
-  <si>
     <t>INC_DIAB2</t>
   </si>
   <si>
@@ -538,9 +476,6 @@
     <t>AGE_DIAB2</t>
   </si>
   <si>
-    <t>Age at diagnosis of diabetes mellitus type 2</t>
-  </si>
-  <si>
     <t>dm_alter_16</t>
   </si>
   <si>
@@ -556,9 +491,6 @@
     <t>AGE_CANCER</t>
   </si>
   <si>
-    <t>Age at diagnosis of cancer</t>
-  </si>
-  <si>
     <t>VITAL_ST</t>
   </si>
   <si>
@@ -571,9 +503,6 @@
     <t>AGE_DEATH</t>
   </si>
   <si>
-    <t>Age at time of death</t>
-  </si>
-  <si>
     <t>t_alter_16</t>
   </si>
   <si>
@@ -598,9 +527,6 @@
     <t>AGE_FUP</t>
   </si>
   <si>
-    <t>Age at end of follow-up</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -631,39 +557,21 @@
     <t>WAIST_FUP</t>
   </si>
   <si>
-    <t>Waist circumference at follow-up</t>
-  </si>
-  <si>
     <t>WAIST</t>
   </si>
   <si>
-    <t>Waist circumference at baseline</t>
-  </si>
-  <si>
     <t>HIP</t>
   </si>
   <si>
-    <t>Hip circumference at baseline</t>
-  </si>
-  <si>
     <t>HIP_FUP</t>
   </si>
   <si>
-    <t>Hip circumference at follow-up</t>
-  </si>
-  <si>
     <t>FMI_FUP</t>
   </si>
   <si>
-    <t>Fat mass index at follow-up</t>
-  </si>
-  <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Fat mass index at baseline</t>
-  </si>
-  <si>
     <t>BODY_FAT_FUP</t>
   </si>
   <si>
@@ -671,9 +579,6 @@
   </si>
   <si>
     <t>AGE_ANTH_FUP</t>
-  </si>
-  <si>
-    <t>Age at anthropometric measurement at follow-up</t>
   </si>
   <si>
     <t>ENERGY</t>
@@ -914,9 +819,6 @@
   </si>
   <si>
     <t xml:space="preserve">AV491 </t>
-  </si>
-  <si>
-    <t>AV491 (dry legumes) </t>
   </si>
   <si>
     <t>FRUITS_TOT_04</t>
@@ -1029,9 +931,6 @@
     <t>5 (7_d_FR_w)</t>
   </si>
   <si>
-    <t>Use of contraceptive pills or injections</t>
-  </si>
-  <si>
     <t>History of diabetes</t>
   </si>
   <si>
@@ -1044,27 +943,12 @@
     <t>Screening cervical, smear test</t>
   </si>
   <si>
-    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18)</t>
-  </si>
-  <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
-    <t>Body Mass Index at follow-up</t>
-  </si>
-  <si>
     <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
   </si>
   <si>
     <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
   </si>
   <si>
-    <t>Body fat precent at follow-up</t>
-  </si>
-  <si>
-    <t>Body fat precent at baseline</t>
-  </si>
-  <si>
     <t>Daily glycaemic load</t>
   </si>
   <si>
@@ -1090,13 +974,133 @@
   </si>
   <si>
     <t>akmosa (monosaccharides) + akdisa (disaccharides)</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Physical activity from accelerometry data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime tobacco exposure  [pack years]</t>
+  </si>
+  <si>
+    <t>Amount of daily tobacco smoked [g/day]</t>
+  </si>
+  <si>
+    <t>Age at time of quitting smoking [years]</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections [years]</t>
+  </si>
+  <si>
+    <t>Number of live births given [Nr. of birth]</t>
+  </si>
+  <si>
+    <t>Age at the first given birth [years]</t>
+  </si>
+  <si>
+    <t>Triglycerides measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Total cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>LDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>HDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of CVD [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of angina pectoris [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of myocardial infarction [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of haemorrhagic stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of essential hypertension [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of heart failure [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cancer [years]</t>
+  </si>
+  <si>
+    <t>Age at time of death [years]</t>
+  </si>
+  <si>
+    <t>Age at end of follow-up [years]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up [kg/m²]</t>
+  </si>
+  <si>
+    <t>Waist circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Waist circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Fat mass index at baseline  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up [%]</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline  [%]</t>
+  </si>
+  <si>
+    <t>Age at anthropometric measurement at follow-up [years]</t>
+  </si>
+  <si>
+    <t>AV491*2</t>
+  </si>
+  <si>
+    <t>double the amount of AV491 (dry legumes) to be comparable to other studies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,11 +1150,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1256,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,8 +1265,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,9 +1323,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1334,9 +1330,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1358,17 +1351,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1679,29 +1670,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="F99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1736,3704 +1727,3704 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>21</v>
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>21</v>
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>21</v>
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>21</v>
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>21</v>
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>21</v>
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>21</v>
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>26</v>
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>21</v>
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J48" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>26</v>
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="J50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>26</v>
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>321</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>21</v>
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>21</v>
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" t="s">
         <v>326</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="E59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>26</v>
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>327</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>26</v>
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>21</v>
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K63" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>26</v>
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>329</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>26</v>
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>330</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>26</v>
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>26</v>
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>26</v>
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>26</v>
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>26</v>
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>26</v>
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>26</v>
+        <v>177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>26</v>
+        <v>178</v>
+      </c>
+      <c r="C74" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>26</v>
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>26</v>
+      <c r="B76" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>26</v>
+      <c r="B77" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>26</v>
+      <c r="B78" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>26</v>
+      <c r="B79" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K79" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>26</v>
+        <v>186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K80" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>26</v>
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>26</v>
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K82" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>26</v>
+        <v>195</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>26</v>
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>26</v>
+        <v>201</v>
+      </c>
+      <c r="C85" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>26</v>
+        <v>204</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>26</v>
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K87" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>26</v>
+        <v>210</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>26</v>
+        <v>212</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>26</v>
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>26</v>
+        <v>216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K91" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>26</v>
+        <v>219</v>
+      </c>
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>26</v>
+        <v>222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>223</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>26</v>
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>26</v>
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K96" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>26</v>
+        <v>233</v>
+      </c>
+      <c r="C97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>267</v>
+        <v>13</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>235</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H97" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I97" s="32" t="s">
-        <v>269</v>
+        <v>231</v>
+      </c>
+      <c r="H97" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="J97" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>26</v>
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>275</v>
+        <v>242</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>26</v>
+        <v>244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="34" t="s">
-        <v>277</v>
+        <v>13</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>278</v>
+        <v>22</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="J99" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>26</v>
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>297</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="I100" s="32" t="s">
-        <v>282</v>
+        <v>249</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>26</v>
+        <v>251</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J101" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>26</v>
+        <v>253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>287</v>
+        <v>13</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H102" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="I102" s="32" t="s">
-        <v>289</v>
+        <v>231</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="J102" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>26</v>
+        <v>258</v>
+      </c>
+      <c r="C103" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="J103" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K103" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I103" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>26</v>
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>294</v>
+        <v>13</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="G104" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I104" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="H104" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="I104" s="32" t="s">
-        <v>296</v>
-      </c>
       <c r="J104" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>26</v>
+        <v>264</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="32" t="s">
-        <v>299</v>
+        <v>13</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>266</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H105" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="I105" s="37" t="s">
-        <v>301</v>
+        <v>231</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>26</v>
+        <v>269</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="32" t="s">
-        <v>304</v>
+        <v>13</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>306</v>
+        <v>231</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>273</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>26</v>
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="I107" s="37" t="s">
-        <v>311</v>
+        <v>277</v>
+      </c>
+      <c r="I107" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>26</v>
+        <v>279</v>
+      </c>
+      <c r="C108" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="34" t="s">
-        <v>314</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>315</v>
+        <v>22</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>282</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="K108" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="41">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>21</v>
+        <v>284</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="47" t="s">
-        <v>318</v>
+        <v>13</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
-      <c r="I109" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="J109" s="48" t="s">
+      <c r="I109" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J109" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K109" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I129" s="1"/>
     </row>
   </sheetData>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB57DD3-E750-4E9A-8336-D7CC8674E9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3AB127-AB3B-46D9-8BB8-E31C6D032EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -710,16 +710,10 @@
     <t>SODIUM</t>
   </si>
   <si>
-    <t>Sodium intake [g/d]</t>
-  </si>
-  <si>
     <t>anatr</t>
   </si>
   <si>
     <t>SOD_POT_RATIO</t>
-  </si>
-  <si>
-    <t>Sodium to potassium intake ratio [g/d]</t>
   </si>
   <si>
     <t>anatr; akal</t>
@@ -1094,6 +1088,12 @@
   </si>
   <si>
     <t>double the amount of AV491 (dry legumes) to be comparable to other studies</t>
+  </si>
+  <si>
+    <t>Sodium intake [mg/d]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium to potassium intake ratio </t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1970,7 +1970,7 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2036,7 +2036,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2069,7 +2069,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2102,7 +2102,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2269,7 +2269,7 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2302,7 +2302,7 @@
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2335,7 +2335,7 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2368,7 +2368,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -2401,7 +2401,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2434,7 +2434,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -2467,7 +2467,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -2838,7 +2838,7 @@
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2871,7 +2871,7 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2904,7 +2904,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -3036,7 +3036,7 @@
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -3102,7 +3102,7 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -3170,7 +3170,7 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -3240,7 +3240,7 @@
         <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -3310,7 +3310,7 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -3380,7 +3380,7 @@
         <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -3448,7 +3448,7 @@
         <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -3514,7 +3514,7 @@
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -3580,7 +3580,7 @@
         <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -3646,10 +3646,10 @@
         <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>13</v>
@@ -3679,7 +3679,7 @@
         <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -3745,7 +3745,7 @@
         <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -3844,7 +3844,7 @@
         <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -3877,7 +3877,7 @@
         <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -3910,7 +3910,7 @@
         <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -3945,7 +3945,7 @@
         <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -3978,7 +3978,7 @@
         <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -4011,7 +4011,7 @@
         <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -4044,7 +4044,7 @@
         <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -4077,7 +4077,7 @@
         <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -4110,7 +4110,7 @@
         <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -4143,7 +4143,7 @@
         <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -4176,7 +4176,7 @@
         <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -4209,7 +4209,7 @@
         <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -4242,7 +4242,7 @@
         <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -4275,7 +4275,7 @@
         <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4614,16 +4614,16 @@
         <v>13</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H88" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>302</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>16</v>
@@ -4805,7 +4805,7 @@
         <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4838,16 +4838,16 @@
         <v>225</v>
       </c>
       <c r="C95" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>22</v>
@@ -4868,25 +4868,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" t="s">
+        <v>342</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C96" t="s">
+      <c r="G96" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4901,34 +4901,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H97" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="I97" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="G97" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H97" s="30" t="s">
+      <c r="J97" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I97" s="31" t="s">
+      <c r="K97" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="J97" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4936,34 +4936,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C98" t="s">
-        <v>295</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="I98" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="G98" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="I98" s="31" t="s">
-        <v>243</v>
-      </c>
       <c r="J98" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4971,31 +4971,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C99" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" s="32" t="s">
-        <v>246</v>
-      </c>
       <c r="J99" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>17</v>
@@ -5006,34 +5006,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="C100" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="28" t="s">
+      <c r="I100" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I100" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="J100" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5041,10 +5041,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -5074,31 +5074,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H102" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="I102" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="I102" s="31" t="s">
-        <v>257</v>
-      </c>
       <c r="J102" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K102" s="28" t="s">
         <v>42</v>
@@ -5109,10 +5109,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -5121,22 +5121,22 @@
         <v>13</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5144,34 +5144,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C104" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="29" t="s">
+      <c r="I104" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G104" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H104" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="J104" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5179,34 +5179,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C105" t="s">
+      <c r="G105" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="31" t="s">
+      <c r="I105" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I105" s="35" t="s">
-        <v>268</v>
-      </c>
       <c r="J105" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5214,34 +5214,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C106" t="s">
+      <c r="G106" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H106" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="31" t="s">
+      <c r="I106" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H106" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I106" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="J106" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5249,34 +5249,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C107" t="s">
+      <c r="G107" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D107" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="I107" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I107" s="35" t="s">
-        <v>278</v>
-      </c>
       <c r="J107" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5284,31 +5284,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C108" t="s">
+      <c r="G108" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>282</v>
-      </c>
       <c r="J108" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>17</v>
@@ -5319,10 +5319,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -5331,16 +5331,16 @@
         <v>13</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>
@@ -5429,8 +5429,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5439,8 +5439,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5451,27 +5451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5712,10 +5691,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5732,20 +5743,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3AB127-AB3B-46D9-8BB8-E31C6D032EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C99AA-3CD5-44E7-B4B4-74B8C4358852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="345">
   <si>
     <t>index</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <t>atbbild</t>
   </si>
   <si>
     <t>EMPLOY</t>
@@ -1095,12 +1092,32 @@
   <si>
     <t xml:space="preserve">Sodium to potassium intake ratio </t>
   </si>
+  <si>
+    <t>AI13ABSC; AI14ABSC</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+  AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
+  AI14ABSC %in% c(3,4) ~ 6L,
+  AI14ABSC %in% c(2) ~ 4L,
+  AI14ABSC %in% c(5) ~ 9L,
+  AI13ABSC %in% c(3) ~ 3L,
+  AI13ABSC %in% c(1,2) ~ 2L,
+  AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
+  is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
+  AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
+  AI13ABSC %in% c(5) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1187,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1255,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1357,9 +1380,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1673,11 +1700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -1803,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1828,7 +1855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1844,21 +1871,21 @@
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
+      <c r="F5" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>344</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1866,10 +1893,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1878,16 +1905,16 @@
         <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>16</v>
@@ -1901,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1914,19 +1941,19 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1934,10 +1961,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1947,19 +1974,19 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1967,10 +1994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1980,19 +2007,19 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2000,10 +2027,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -2012,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>22</v>
@@ -2033,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2046,19 +2073,19 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2066,10 +2093,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2079,19 +2106,19 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,31 +2126,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>17</v>
@@ -2134,10 +2161,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2147,19 +2174,19 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2167,10 +2194,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2180,19 +2207,19 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2200,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -2213,19 +2240,19 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,10 +2260,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2246,19 +2273,19 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2266,10 +2293,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2279,19 +2306,19 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,10 +2326,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2312,19 +2339,19 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2332,10 +2359,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2345,19 +2372,19 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2365,19 +2392,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>22</v>
@@ -2398,10 +2425,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2411,19 +2438,19 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2431,19 +2458,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>22</v>
@@ -2464,10 +2491,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -2476,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>22</v>
@@ -2497,10 +2524,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2509,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>22</v>
@@ -2530,10 +2557,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2542,22 +2569,22 @@
         <v>13</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2565,10 +2592,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -2578,19 +2605,19 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2598,10 +2625,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2610,16 +2637,16 @@
         <v>13</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>79</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>16</v>
@@ -2633,10 +2660,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -2645,16 +2672,16 @@
         <v>13</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>84</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>16</v>
@@ -2668,10 +2695,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -2680,16 +2707,16 @@
         <v>13</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>16</v>
@@ -2703,10 +2730,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -2716,19 +2743,19 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2763,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -2749,19 +2776,19 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2769,10 +2796,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -2782,19 +2809,19 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2802,10 +2829,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
         <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -2815,19 +2842,19 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2835,10 +2862,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2848,19 +2875,19 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2868,10 +2895,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2881,19 +2908,19 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2901,10 +2928,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -2914,19 +2941,19 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,10 +2961,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -2946,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>22</v>
@@ -2967,10 +2994,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
         <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -2980,19 +3007,19 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3000,10 +3027,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
@@ -3013,19 +3040,19 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3033,10 +3060,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -3046,19 +3073,19 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3066,10 +3093,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -3079,19 +3106,19 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3099,10 +3126,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -3112,19 +3139,19 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3132,10 +3159,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -3144,16 +3171,16 @@
         <v>13</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>16</v>
@@ -3167,28 +3194,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C45" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>16</v>
@@ -3202,10 +3229,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
         <v>119</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -3214,16 +3241,16 @@
         <v>13</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>16</v>
@@ -3237,28 +3264,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C47" t="s">
-        <v>317</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="24" t="s">
+      <c r="G47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>16</v>
@@ -3272,10 +3299,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
         <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -3284,16 +3311,16 @@
         <v>13</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>16</v>
@@ -3307,28 +3334,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>16</v>
@@ -3342,10 +3369,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
         <v>132</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -3354,16 +3381,16 @@
         <v>13</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>16</v>
@@ -3377,28 +3404,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>16</v>
@@ -3412,10 +3439,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
         <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
@@ -3425,19 +3452,19 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3445,10 +3472,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -3458,19 +3485,19 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3478,10 +3505,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -3491,19 +3518,19 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,10 +3538,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -3524,19 +3551,19 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3544,10 +3571,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
         <v>144</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -3556,7 +3583,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>22</v>
@@ -3577,19 +3604,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="C57" t="s">
-        <v>322</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>22</v>
@@ -3610,10 +3637,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
         <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>20</v>
@@ -3623,19 +3650,19 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,32 +3670,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" t="s">
         <v>323</v>
-      </c>
-      <c r="D59" t="s">
-        <v>324</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3676,10 +3703,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -3689,19 +3716,19 @@
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,10 +3736,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
@@ -3721,7 +3748,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>22</v>
@@ -3742,19 +3769,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>326</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
@@ -3775,10 +3802,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
         <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -3787,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>22</v>
@@ -3808,10 +3835,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
         <v>161</v>
-      </c>
-      <c r="C64" t="s">
-        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -3820,7 +3847,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>22</v>
@@ -3841,10 +3868,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -3853,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>22</v>
@@ -3874,19 +3901,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="C66" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>22</v>
@@ -3907,34 +3934,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C67" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="G67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,10 +3969,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -3955,19 +3982,19 @@
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,10 +4002,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -3988,19 +4015,19 @@
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4008,10 +4035,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -4021,19 +4048,19 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,10 +4068,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -4054,19 +4081,19 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4074,10 +4101,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -4087,19 +4114,19 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4107,10 +4134,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -4120,19 +4147,19 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4140,10 +4167,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -4153,19 +4180,19 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4173,10 +4200,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -4186,19 +4213,19 @@
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4206,10 +4233,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -4219,19 +4246,19 @@
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4239,10 +4266,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -4252,19 +4279,19 @@
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4272,10 +4299,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4285,19 +4312,19 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4305,19 +4332,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
         <v>183</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>22</v>
@@ -4338,19 +4365,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>22</v>
@@ -4371,19 +4398,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" t="s">
         <v>189</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>22</v>
@@ -4404,19 +4431,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
         <v>192</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="D82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>22</v>
@@ -4437,19 +4464,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
         <v>195</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>197</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>22</v>
@@ -4470,19 +4497,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
         <v>198</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>200</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>22</v>
@@ -4503,19 +4530,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="s">
         <v>201</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>22</v>
@@ -4536,19 +4563,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" t="s">
         <v>204</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>22</v>
@@ -4569,19 +4596,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" t="s">
         <v>207</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>209</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>22</v>
@@ -4602,11 +4629,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s">
         <v>210</v>
       </c>
-      <c r="C88" t="s">
-        <v>211</v>
-      </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
@@ -4614,22 +4641,22 @@
         <v>13</v>
       </c>
       <c r="F88" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I88" s="18" t="s">
         <v>299</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4637,10 +4664,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
         <v>212</v>
-      </c>
-      <c r="C89" t="s">
-        <v>213</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -4650,19 +4677,19 @@
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4670,10 +4697,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
         <v>214</v>
-      </c>
-      <c r="C90" t="s">
-        <v>215</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -4683,19 +4710,19 @@
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4703,19 +4730,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" t="s">
         <v>216</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>217</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>218</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>22</v>
@@ -4736,19 +4763,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
         <v>219</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>221</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>22</v>
@@ -4769,10 +4796,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s">
         <v>222</v>
-      </c>
-      <c r="C93" t="s">
-        <v>223</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -4782,19 +4809,19 @@
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4802,10 +4829,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4815,19 +4842,19 @@
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4835,19 +4862,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>340</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>22</v>
@@ -4868,25 +4895,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C96" t="s">
-        <v>342</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4901,34 +4928,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="G97" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H97" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G97" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H97" s="30" t="s">
+      <c r="I97" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="I97" s="31" t="s">
+      <c r="J97" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="J97" s="28" t="s">
+      <c r="K97" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4936,34 +4963,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C98" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="G98" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G98" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H98" s="28" t="s">
+      <c r="I98" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="I98" s="31" t="s">
-        <v>241</v>
-      </c>
       <c r="J98" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K98" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K98" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4971,31 +4998,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C99" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="32" t="s">
+      <c r="G99" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="G99" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="J99" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>17</v>
@@ -5006,34 +5033,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>294</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="28" t="s">
+      <c r="G100" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H100" s="28" t="s">
+      <c r="I100" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="I100" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="J100" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K100" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K100" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5041,10 +5068,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s">
         <v>249</v>
-      </c>
-      <c r="C101" t="s">
-        <v>250</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -5054,19 +5081,19 @@
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J101" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -5074,34 +5101,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" t="s">
         <v>251</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="G102" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H102" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="G102" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H102" s="31" t="s">
+      <c r="I102" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="I102" s="31" t="s">
-        <v>255</v>
-      </c>
       <c r="J102" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5109,34 +5136,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C103" t="s">
-        <v>296</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="34" t="s">
-        <v>257</v>
-      </c>
       <c r="G103" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H103" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I103" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="I103" s="44" t="s">
-        <v>340</v>
-      </c>
       <c r="J103" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5144,34 +5171,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C104" t="s">
-        <v>297</v>
-      </c>
-      <c r="D104" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="29" t="s">
+      <c r="G104" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G104" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H104" s="29" t="s">
+      <c r="I104" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="I104" s="31" t="s">
-        <v>261</v>
-      </c>
       <c r="J104" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K104" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K104" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5179,34 +5206,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
         <v>262</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="31" t="s">
+      <c r="G105" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H105" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H105" s="31" t="s">
+      <c r="I105" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="I105" s="35" t="s">
-        <v>266</v>
-      </c>
       <c r="J105" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K105" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K105" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5214,34 +5241,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s">
         <v>267</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="31" t="s">
+      <c r="G106" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H106" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H106" s="31" t="s">
+      <c r="I106" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I106" s="31" t="s">
-        <v>271</v>
-      </c>
       <c r="J106" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K106" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5249,34 +5276,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" t="s">
         <v>272</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D107" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="G107" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H107" s="28" t="s">
+      <c r="I107" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="I107" s="35" t="s">
-        <v>276</v>
-      </c>
       <c r="J107" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K107" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="K107" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5284,31 +5311,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" t="s">
         <v>277</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="32" t="s">
+      <c r="G108" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="G108" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>280</v>
-      </c>
       <c r="J108" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>17</v>
@@ -5319,10 +5346,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" t="s">
         <v>281</v>
-      </c>
-      <c r="C109" t="s">
-        <v>282</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -5331,16 +5358,16 @@
         <v>13</v>
       </c>
       <c r="F109" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>
@@ -5429,8 +5456,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5439,8 +5466,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5451,6 +5478,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5691,28 +5739,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5729,23 +5775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C99AA-3CD5-44E7-B4B4-74B8C4358852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A16ACD-2586-4E3B-8D35-CA56FE0914F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1103,13 +1103,12 @@
   AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
   AI14ABSC %in% c(3,4) ~ 6L,
   AI14ABSC %in% c(2) ~ 4L,
-  AI14ABSC %in% c(5) ~ 9L,
   AI13ABSC %in% c(3) ~ 3L,
   AI13ABSC %in% c(1,2) ~ 2L,
   AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
   is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
   AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
-  AI13ABSC %in% c(5) ~ 9L,
+  AI14ABSC %in% c(5) | AI13ABSC %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
   </si>
 </sst>
@@ -1701,7 +1700,7 @@
   <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5456,8 +5455,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5466,8 +5465,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5478,27 +5477,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5739,10 +5717,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5759,20 +5769,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A16ACD-2586-4E3B-8D35-CA56FE0914F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A769EF-9933-4004-AC6E-407D4F80C404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="344">
   <si>
     <t>index</t>
   </si>
@@ -113,9 +113,6 @@
     <t>EDU_LEVEL</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>EMPLOY</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
   </si>
   <si>
     <t>proximate</t>
-  </si>
-  <si>
-    <t>tentative</t>
   </si>
   <si>
     <t>BMI_SDS</t>
@@ -1093,23 +1087,26 @@
     <t xml:space="preserve">Sodium to potassium intake ratio </t>
   </si>
   <si>
-    <t>AI13ABSC; AI14ABSC</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
+    <t>ai13absc; ai14absc</t>
+  </si>
+  <si>
     <t>case_when(
-  AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
-  AI14ABSC %in% c(3,4) ~ 6L,
-  AI14ABSC %in% c(2) ~ 4L,
-  AI13ABSC %in% c(3) ~ 3L,
-  AI13ABSC %in% c(1,2) ~ 2L,
-  AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
-  is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
-  AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
-  AI14ABSC %in% c(5) | AI13ABSC %in% c(5) ~ 9L,
+  ai13absc %in% c(4) | ai14absc %in% c(0) ~ 7L,
+  ai14absc %in% c(3,4) ~ 6L,
+  ai14absc %in% c(2) ~ 4L,
+  ai13absc %in% c(3) ~ 3L,
+  ai13absc %in% c(1,2) ~ 2L,
+  ai13absc %in% c(6) &amp; ai14absc %in% c(1) ~ 0L,
+  is.na(ai13absc) &amp; ai14absc %in% c(1) ~ 0L,
+  ai13absc %in% c(6) &amp; is.na(ai14absc) ~ 0L,
+  ai14absc %in% c(5) | ai13absc %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
@@ -1699,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1861,8 +1858,8 @@
       <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
+      <c r="C5" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1871,20 +1868,20 @@
         <v>13</v>
       </c>
       <c r="F5" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>342</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>344</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1892,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1904,16 +1901,16 @@
         <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>16</v>
@@ -1927,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1940,19 +1937,19 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1973,19 +1970,19 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2006,19 +2003,19 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,10 +2023,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -2038,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>22</v>
@@ -2059,10 +2056,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2072,19 +2069,19 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2092,10 +2089,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2105,19 +2102,19 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2125,34 +2122,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>17</v>
+      <c r="K13" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2160,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2173,19 +2170,19 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2193,10 +2190,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2206,19 +2203,19 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,10 +2223,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -2239,19 +2236,19 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2259,10 +2256,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2272,19 +2269,19 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2292,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2305,19 +2302,19 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,10 +2322,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2338,19 +2335,19 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2358,10 +2355,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2371,19 +2368,19 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,19 +2388,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>22</v>
@@ -2424,10 +2421,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2437,19 +2434,19 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,19 +2454,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>22</v>
@@ -2490,10 +2487,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -2502,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>22</v>
@@ -2523,10 +2520,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2535,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>22</v>
@@ -2556,10 +2553,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2568,22 +2565,22 @@
         <v>13</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2591,10 +2588,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -2604,19 +2601,19 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2624,10 +2621,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2636,16 +2633,16 @@
         <v>13</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>16</v>
@@ -2659,10 +2656,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -2671,16 +2668,16 @@
         <v>13</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>83</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>16</v>
@@ -2694,10 +2691,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -2706,16 +2703,16 @@
         <v>13</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>16</v>
@@ -2729,10 +2726,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -2742,19 +2739,19 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,10 +2759,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -2775,19 +2772,19 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,10 +2792,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -2808,19 +2805,19 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2828,10 +2825,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -2841,19 +2838,19 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,10 +2858,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2874,19 +2871,19 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2894,10 +2891,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2907,19 +2904,19 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2927,10 +2924,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -2940,19 +2937,19 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2960,10 +2957,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -2972,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>22</v>
@@ -2993,10 +2990,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -3006,19 +3003,19 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3026,10 +3023,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
@@ -3039,19 +3036,19 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3059,10 +3056,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -3072,19 +3069,19 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3092,10 +3089,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
         <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -3105,19 +3102,19 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3125,10 +3122,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -3138,19 +3135,19 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3158,10 +3155,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -3170,16 +3167,16 @@
         <v>13</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>16</v>
@@ -3193,28 +3190,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>16</v>
@@ -3228,10 +3225,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -3240,16 +3237,16 @@
         <v>13</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>121</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>16</v>
@@ -3263,28 +3260,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
-        <v>316</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="24" t="s">
+      <c r="G47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>16</v>
@@ -3298,10 +3295,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -3310,16 +3307,16 @@
         <v>13</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>16</v>
@@ -3333,28 +3330,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>16</v>
@@ -3368,10 +3365,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
         <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -3380,16 +3377,16 @@
         <v>13</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>16</v>
@@ -3403,28 +3400,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>318</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>16</v>
@@ -3438,10 +3435,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
@@ -3451,19 +3448,19 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,10 +3468,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -3484,19 +3481,19 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3504,10 +3501,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>141</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -3517,19 +3514,19 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,10 +3534,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -3550,19 +3547,19 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,10 +3567,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
         <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -3582,7 +3579,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>22</v>
@@ -3603,19 +3600,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>321</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>22</v>
@@ -3636,10 +3633,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
         <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>20</v>
@@ -3649,19 +3646,19 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3669,32 +3666,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3702,10 +3699,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -3715,19 +3712,19 @@
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,10 +3732,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
         <v>152</v>
-      </c>
-      <c r="C61" t="s">
-        <v>153</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
@@ -3747,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>22</v>
@@ -3768,19 +3765,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
@@ -3801,10 +3798,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" t="s">
         <v>157</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -3813,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>22</v>
@@ -3834,10 +3831,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
         <v>160</v>
-      </c>
-      <c r="C64" t="s">
-        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -3846,7 +3843,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>22</v>
@@ -3867,10 +3864,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -3879,7 +3876,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>22</v>
@@ -3900,19 +3897,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="C66" t="s">
-        <v>327</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>22</v>
@@ -3933,34 +3930,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C67" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="G67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3968,10 +3965,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -3981,19 +3978,19 @@
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,10 +3998,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -4014,19 +4011,19 @@
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4034,10 +4031,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -4047,19 +4044,19 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,10 +4064,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -4080,19 +4077,19 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4100,10 +4097,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -4113,19 +4110,19 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4133,10 +4130,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -4146,19 +4143,19 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,10 +4163,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -4179,19 +4176,19 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,10 +4196,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -4212,19 +4209,19 @@
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4232,10 +4229,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -4245,19 +4242,19 @@
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4265,10 +4262,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -4278,19 +4275,19 @@
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4298,10 +4295,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4311,19 +4308,19 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4331,19 +4328,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="C79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>22</v>
@@ -4364,19 +4361,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="C80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>22</v>
@@ -4397,19 +4394,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="C81" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>22</v>
@@ -4430,19 +4427,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>22</v>
@@ -4463,19 +4460,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="C83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>22</v>
@@ -4496,19 +4493,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="C84" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>199</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>22</v>
@@ -4529,19 +4526,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>200</v>
-      </c>
-      <c r="C85" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>22</v>
@@ -4562,19 +4559,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="C86" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>22</v>
@@ -4595,19 +4592,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>22</v>
@@ -4628,10 +4625,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -4640,22 +4637,22 @@
         <v>13</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H88" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="I88" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,10 +4660,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -4676,19 +4673,19 @@
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4696,10 +4693,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -4709,19 +4706,19 @@
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4729,19 +4726,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="C91" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>217</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>22</v>
@@ -4762,19 +4759,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>22</v>
@@ -4795,10 +4792,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -4808,19 +4805,19 @@
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4828,10 +4825,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4841,19 +4838,19 @@
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4861,10 +4858,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -4873,7 +4870,7 @@
         <v>13</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>22</v>
@@ -4894,25 +4891,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G96" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C96" t="s">
-        <v>341</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18" t="s">
@@ -4927,34 +4924,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H97" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="I97" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="G97" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H97" s="30" t="s">
+      <c r="J97" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="I97" s="31" t="s">
+      <c r="K97" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="J97" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4962,34 +4959,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C98" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="I98" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="G98" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="I98" s="31" t="s">
-        <v>240</v>
-      </c>
       <c r="J98" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4997,31 +4994,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C99" t="s">
-        <v>293</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" s="32" t="s">
-        <v>243</v>
-      </c>
       <c r="J99" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K99" s="28" t="s">
         <v>17</v>
@@ -5032,34 +5029,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C100" t="s">
-        <v>294</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="28" t="s">
+      <c r="I100" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="I100" s="31" t="s">
-        <v>247</v>
-      </c>
       <c r="J100" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5067,10 +5064,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -5080,19 +5077,19 @@
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J101" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -5100,34 +5097,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H102" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="I102" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="G102" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H102" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="I102" s="31" t="s">
-        <v>254</v>
-      </c>
       <c r="J102" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5135,10 +5132,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -5147,22 +5144,22 @@
         <v>13</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5170,34 +5167,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C104" t="s">
-        <v>296</v>
-      </c>
-      <c r="D104" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="29" t="s">
+      <c r="I104" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G104" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H104" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>260</v>
-      </c>
       <c r="J104" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5205,34 +5202,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C105" t="s">
+      <c r="G105" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H105" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="31" t="s">
+      <c r="I105" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I105" s="35" t="s">
-        <v>265</v>
-      </c>
       <c r="J105" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5240,34 +5237,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C106" t="s">
+      <c r="G106" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H106" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="31" t="s">
+      <c r="I106" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H106" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I106" s="31" t="s">
-        <v>270</v>
-      </c>
       <c r="J106" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5275,34 +5272,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C107" t="s">
+      <c r="G107" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D107" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="28" t="s">
+      <c r="I107" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="I107" s="35" t="s">
-        <v>275</v>
-      </c>
       <c r="J107" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5310,31 +5307,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C108" t="s">
+      <c r="G108" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>279</v>
-      </c>
       <c r="J108" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K108" s="28" t="s">
         <v>17</v>
@@ -5345,10 +5342,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C109" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -5357,16 +5354,16 @@
         <v>13</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>
@@ -5455,8 +5452,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5465,8 +5462,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5477,6 +5474,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5717,18 +5726,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5739,6 +5736,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF55999-2F9F-487E-85F2-88A3DAC30E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5757,17 +5765,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
   <ds:schemaRefs>
